--- a/Requirement Tracability matrix/Requirement_Tracebility_Matrix_24052023.xlsx
+++ b/Requirement Tracability matrix/Requirement_Tracebility_Matrix_24052023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VWO\Requirement Tracability matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0053700-8E8D-4192-80A0-DA3947139FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1E4CA7-D62D-409D-977A-6850286F3BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Requirement Tracebility Matrix</t>
   </si>
@@ -65,13 +65,58 @@
   <si>
     <t>Purpose:To manage Requirements throughout the software development life cycle, 
 The Tracebility Matrix ensures that requirement are captured in design is implemented in code and verified in test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Campaign AB Test flow</t>
+  </si>
+  <si>
+    <t>Existing user with blocked account</t>
+  </si>
+  <si>
+    <t>Login TC01 to TC38</t>
+  </si>
+  <si>
+    <t>Signup TC01 to TC02</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>VWO Project</t>
+  </si>
+  <si>
+    <t>Kavya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +140,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +164,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -152,26 +209,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +513,10 @@
   <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.81640625" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
@@ -470,94 +528,96 @@
     <col min="9" max="11" width="8.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="6" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="54" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="1"/>
@@ -566,12 +626,22 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:11" ht="15.5">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -579,12 +649,22 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:11" ht="15.5">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -592,10 +672,16 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -605,10 +691,16 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -618,10 +710,16 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -631,7 +729,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -644,7 +742,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -657,7 +755,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -670,7 +768,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -683,7 +781,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -696,7 +794,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -709,7 +807,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -722,7 +820,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -735,7 +833,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -748,7 +846,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -761,7 +859,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
